--- a/Documents/Weekly Plan/Project Plan Week1+2.xlsx
+++ b/Documents/Weekly Plan/Project Plan Week1+2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudangkhoa/Documents/EduPKA/Documents/Weekly Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C96F53F-F46F-5C4F-BA57-0056BE9362FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3307A56-31E2-324E-8E4C-5AAB8DC0C12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1689,20 +1689,6 @@
     <xf numFmtId="0" fontId="33" fillId="17" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,6 +1711,20 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1741,1417 +1741,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="201">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <fill>
         <patternFill>
@@ -3260,333 +1850,6 @@
         <bottom style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4444,15 +2707,329 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4551,15 +3128,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="200"/>
-      <tableStyleElement type="headerRow" dxfId="199"/>
-      <tableStyleElement type="totalRow" dxfId="198"/>
-      <tableStyleElement type="firstColumn" dxfId="197"/>
-      <tableStyleElement type="lastColumn" dxfId="196"/>
-      <tableStyleElement type="firstRowStripe" dxfId="195"/>
-      <tableStyleElement type="secondRowStripe" dxfId="194"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="193"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="192"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
+      <tableStyleElement type="totalRow" dxfId="101"/>
+      <tableStyleElement type="firstColumn" dxfId="100"/>
+      <tableStyleElement type="lastColumn" dxfId="99"/>
+      <tableStyleElement type="firstRowStripe" dxfId="98"/>
+      <tableStyleElement type="secondRowStripe" dxfId="97"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="96"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4947,28 +3524,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -4980,28 +3557,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>1</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -5097,102 +3674,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -5421,12 +3998,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -7090,6 +5667,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -7101,13 +5685,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D18 D20:D29">
     <cfRule type="dataBar" priority="15">
@@ -7124,40 +5701,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="93" priority="13">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL21">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="91" priority="12">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BL25">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="89" priority="8">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="11" stopIfTrue="1">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL29">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="86" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7240,28 +5817,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -7273,28 +5850,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>10</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -7390,102 +5967,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45698</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45705</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45712</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45719</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45726</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45733</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45740</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45747</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -7714,12 +6291,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -10334,6 +8911,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -10345,13 +8929,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -10368,39 +8945,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="137" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="136" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="134" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="132" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="130" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10584,8 +9161,8 @@
   </sheetPr>
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B3" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A15" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10616,28 +9193,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45642</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -10649,28 +9226,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>2</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -10766,102 +9343,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45642</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45649</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45656</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45663</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45670</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45677</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45684</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45691</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -11090,12 +9667,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -12348,7 +10925,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="116">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E26" s="117">
         <f>E15</f>
@@ -12429,7 +11006,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="116">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="E27" s="117">
         <f>E15</f>
@@ -12816,7 +11393,7 @@
         <v>70</v>
       </c>
       <c r="D32" s="74">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E32" s="123">
         <v>45642</v>
@@ -13027,6 +11604,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -13038,13 +11622,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D36 D10:D21">
     <cfRule type="dataBar" priority="14">
@@ -13061,55 +11638,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL15">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL19">
-    <cfRule type="expression" dxfId="42" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="12">
+    <cfRule type="expression" dxfId="80" priority="12">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL24">
-    <cfRule type="expression" dxfId="40" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL29">
-    <cfRule type="expression" dxfId="38" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="10">
+    <cfRule type="expression" dxfId="76" priority="10">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL34">
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="75" priority="8">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="72" priority="3">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13192,28 +11769,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -13225,28 +11802,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>3</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -13344,102 +11921,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45649</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45656</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45663</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45670</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45677</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45684</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45691</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45698</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -13668,12 +12245,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -16332,6 +14909,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -16343,13 +14927,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -16366,39 +14943,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="107" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="115" priority="6">
+    <cfRule type="expression" dxfId="70" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="113" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="112" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="110" priority="9">
+    <cfRule type="expression" dxfId="64" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16483,28 +15060,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -16516,28 +15093,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>4</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -16635,102 +15212,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45656</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45663</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45670</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45677</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45684</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45691</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45698</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45705</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -16959,12 +15536,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -19623,6 +18200,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -19634,13 +18218,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -19657,39 +18234,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="191" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="190" priority="6">
+    <cfRule type="expression" dxfId="61" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="188" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="186" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="184" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19774,28 +18351,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -19807,28 +18384,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>5</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -19926,102 +18503,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45663</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45670</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45677</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45684</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45691</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45698</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45705</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45712</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -20250,12 +18827,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -22914,6 +21491,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -22925,13 +21509,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -22948,39 +21525,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="182" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="181" priority="6">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="179" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="177" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="175" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23065,28 +21642,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -23098,28 +21675,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>6</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -23217,102 +21794,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45670</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45677</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45684</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45691</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45698</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45705</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45712</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45719</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -23541,12 +22118,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -26205,6 +24782,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -26216,13 +24800,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -26239,39 +24816,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="172" priority="6">
+    <cfRule type="expression" dxfId="43" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="170" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="168" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="166" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26356,28 +24933,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -26389,28 +24966,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>7</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -26506,102 +25083,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45677</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45684</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45691</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45698</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45705</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45712</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45719</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45726</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -26830,12 +25407,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -29450,6 +28027,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -29461,13 +28045,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -29484,39 +28061,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="164" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="163" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="161" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="159" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="157" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29601,28 +28178,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -29634,28 +28211,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>8</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -29751,102 +28328,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45684</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45691</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45698</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45705</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45712</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45719</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45726</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45733</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -30075,12 +28652,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -32695,6 +31272,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -32706,13 +31290,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -32729,39 +31306,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="155" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="154" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="152" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="150" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="148" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32846,28 +31423,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="178"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="179">
+      <c r="Q1" s="187">
         <v>45639</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="188"/>
+      <c r="T1" s="188"/>
+      <c r="U1" s="188"/>
+      <c r="V1" s="188"/>
+      <c r="W1" s="188"/>
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -32879,28 +31456,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="177" t="s">
+      <c r="I2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="181">
+      <c r="Q2" s="189">
         <v>9</v>
       </c>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="180"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -32996,102 +31573,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="182">
+      <c r="I7" s="190">
         <f>I8</f>
         <v>45691</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="183">
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177">
         <f>P8</f>
         <v>45698</v>
       </c>
-      <c r="Q7" s="183"/>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183">
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177">
         <f>W8</f>
         <v>45705</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177">
         <f>AD8</f>
         <v>45712</v>
       </c>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183">
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177">
         <f>AK8</f>
         <v>45719</v>
       </c>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="183"/>
-      <c r="AO7" s="183"/>
-      <c r="AP7" s="183"/>
-      <c r="AQ7" s="183"/>
-      <c r="AR7" s="183">
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177">
         <f>AR8</f>
         <v>45726</v>
       </c>
-      <c r="AS7" s="183"/>
-      <c r="AT7" s="183"/>
-      <c r="AU7" s="183"/>
-      <c r="AV7" s="183"/>
-      <c r="AW7" s="183"/>
-      <c r="AX7" s="183"/>
-      <c r="AY7" s="183">
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177">
         <f>AY8</f>
         <v>45733</v>
       </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="183"/>
-      <c r="BC7" s="183"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183">
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="177"/>
+      <c r="BC7" s="177"/>
+      <c r="BD7" s="177"/>
+      <c r="BE7" s="177"/>
+      <c r="BF7" s="177">
         <f>BF8</f>
         <v>45740</v>
       </c>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="183"/>
-      <c r="BI7" s="183"/>
-      <c r="BJ7" s="183"/>
-      <c r="BK7" s="183"/>
-      <c r="BL7" s="184"/>
+      <c r="BG7" s="177"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="177"/>
+      <c r="BJ7" s="177"/>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="178"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186" t="s">
+      <c r="A8" s="179"/>
+      <c r="B8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="190" t="s">
+      <c r="F8" s="184" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -33320,12 +31897,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -35940,6 +34517,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -35951,13 +34535,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -35974,39 +34551,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="146" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="145" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="143" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="139" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36058,15 +34635,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -36378,6 +34946,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -36399,14 +34976,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36423,6 +34992,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/Weekly Plan/Project Plan Week1+2.xlsx
+++ b/Documents/Weekly Plan/Project Plan Week1+2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudangkhoa/Documents/EduPKA/Documents/Weekly Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3307A56-31E2-324E-8E4C-5AAB8DC0C12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62CE74EA-4ABB-5D47-8842-9F0A95B09E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="28" r:id="rId1"/>
     <sheet name="Tuần 2" sheetId="33" r:id="rId2"/>
-    <sheet name="Tuần 3" sheetId="24" r:id="rId3"/>
+    <sheet name="Tuần 3" sheetId="34" r:id="rId3"/>
     <sheet name="Tuần 4" sheetId="25" r:id="rId4"/>
     <sheet name="Tuần 5" sheetId="26" r:id="rId5"/>
     <sheet name="Tuần 6" sheetId="27" r:id="rId6"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="81">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Project Week start:</t>
+  </si>
+  <si>
+    <t>Đặc tả hệ thống (sơ bộ)</t>
+  </si>
+  <si>
+    <t>Đặc tả thành phần hệ thống (flow diagram)</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1189,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1689,6 +1695,23 @@
     <xf numFmtId="0" fontId="33" fillId="17" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1711,20 +1734,6 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1741,7 +1750,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="108">
     <dxf>
       <fill>
         <patternFill>
@@ -2599,23 +2608,44 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="3" tint="0.749961851863155"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2636,7 +2666,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2656,11 +2693,45 @@
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -2677,18 +2748,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2698,25 +2765,16 @@
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <border>
         <left/>
         <right/>
-        <top/>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -3128,15 +3186,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="103"/>
-      <tableStyleElement type="headerRow" dxfId="102"/>
-      <tableStyleElement type="totalRow" dxfId="101"/>
-      <tableStyleElement type="firstColumn" dxfId="100"/>
-      <tableStyleElement type="lastColumn" dxfId="99"/>
-      <tableStyleElement type="firstRowStripe" dxfId="98"/>
-      <tableStyleElement type="secondRowStripe" dxfId="97"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="96"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="95"/>
+      <tableStyleElement type="wholeTable" dxfId="107"/>
+      <tableStyleElement type="headerRow" dxfId="106"/>
+      <tableStyleElement type="totalRow" dxfId="105"/>
+      <tableStyleElement type="firstColumn" dxfId="104"/>
+      <tableStyleElement type="lastColumn" dxfId="103"/>
+      <tableStyleElement type="firstRowStripe" dxfId="102"/>
+      <tableStyleElement type="secondRowStripe" dxfId="101"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="100"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="99"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3493,7 +3551,7 @@
   </sheetPr>
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="74" zoomScaleNormal="96" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="B13" zoomScale="52" zoomScaleNormal="96" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
@@ -3524,28 +3582,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -3557,28 +3615,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>1</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -3674,102 +3732,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45635</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45642</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45649</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45656</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45663</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45670</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45677</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45684</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -3998,12 +4056,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -5667,13 +5725,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -5685,6 +5736,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D18 D20:D29">
     <cfRule type="dataBar" priority="15">
@@ -5701,40 +5759,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="94" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="13">
+    <cfRule type="expression" dxfId="97" priority="13">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL21">
-    <cfRule type="expression" dxfId="92" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="12">
+    <cfRule type="expression" dxfId="95" priority="12">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BL25">
-    <cfRule type="expression" dxfId="89" priority="8">
+    <cfRule type="expression" dxfId="93" priority="8">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="11" stopIfTrue="1">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="4">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL29">
-    <cfRule type="expression" dxfId="86" priority="9">
+    <cfRule type="expression" dxfId="90" priority="9">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="10" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5817,28 +5875,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -5850,28 +5908,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>10</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -5967,102 +6025,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45698</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45705</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45712</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45719</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45726</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45733</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45740</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45747</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -6291,12 +6349,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -8911,13 +8969,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -8929,6 +8980,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -9161,8 +9219,8 @@
   </sheetPr>
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A15" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A20" zoomScale="55" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9193,28 +9251,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45642</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -9226,28 +9284,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>2</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -9343,102 +9401,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45642</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45649</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45656</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45663</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45670</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45677</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45684</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45691</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -9667,12 +9725,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f>LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -10291,7 +10349,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="55">
         <f>E14</f>
@@ -10925,7 +10983,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="116">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="E26" s="117">
         <f>E15</f>
@@ -11006,7 +11064,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="116">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="117">
         <f>E15</f>
@@ -11164,7 +11222,9 @@
       <c r="C29" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="130"/>
+      <c r="D29" s="130">
+        <v>0.2</v>
+      </c>
       <c r="E29" s="131">
         <f>E17</f>
         <v>45642</v>
@@ -11393,7 +11453,7 @@
         <v>70</v>
       </c>
       <c r="D32" s="74">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E32" s="123">
         <v>45642</v>
@@ -11581,8 +11641,12 @@
       <c r="B36" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="174"/>
+      <c r="C36" s="173" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="174">
+        <v>0.5</v>
+      </c>
       <c r="E36" s="175">
         <v>45642</v>
       </c>
@@ -11604,13 +11668,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -11622,6 +11679,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D36 D10:D21">
     <cfRule type="dataBar" priority="14">
@@ -11638,55 +11702,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL15">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL19">
-    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="13" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="12">
+    <cfRule type="expression" dxfId="84" priority="12">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL24">
-    <cfRule type="expression" dxfId="79" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="6" stopIfTrue="1">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:BL29">
-    <cfRule type="expression" dxfId="77" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL34">
-    <cfRule type="expression" dxfId="75" priority="8">
+    <cfRule type="expression" dxfId="79" priority="8">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="3">
+    <cfRule type="expression" dxfId="76" priority="3">
       <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11736,27 +11800,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B56A40A-60DB-4052-9671-5C4F03BCC5AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AFFF8E-CEA0-4506-A6F2-C6B0C585B126}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL45"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="C19" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="56" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="65" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="114" customHeight="1" x14ac:dyDescent="0.65">
@@ -11769,68 +11838,68 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="I1" s="178" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
-        <v>45639</v>
-      </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="Q1" s="180">
+        <v>45649</v>
+      </c>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>3</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
@@ -11857,7 +11926,7 @@
     <row r="4" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B4" s="96"/>
       <c r="C4" s="97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -11884,7 +11953,7 @@
     <row r="5" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B5" s="96"/>
       <c r="C5" s="97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
@@ -11911,9 +11980,7 @@
     <row r="6" spans="1:64" s="26" customFormat="1" ht="20" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="108" t="s">
-        <v>64</v>
-      </c>
+      <c r="C6" s="108"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
     </row>
@@ -11921,106 +11988,106 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45649</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45656</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45663</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45670</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45677</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45684</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45691</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45698</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
-        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)-12+7*(Display_Week-1)</f>
         <v>45649</v>
       </c>
       <c r="J8" s="31">
@@ -12032,7 +12099,7 @@
         <v>45651</v>
       </c>
       <c r="L8" s="31">
-        <f t="shared" si="0"/>
+        <f>K8+1</f>
         <v>45652</v>
       </c>
       <c r="M8" s="31">
@@ -12245,12 +12312,2627 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
+      <c r="I9" s="34" t="str">
+        <f>LEFT(TEXT(I8,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="J9" s="35" t="str">
+        <f>LEFT(TEXT(J8,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="K9" s="35" t="str">
+        <f t="shared" ref="K9:BL9" si="3">LEFT(TEXT(K8,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="L9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="M9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="N9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="O9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="P9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="Q9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="R9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="S9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="T9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="U9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="V9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="W9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="X9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="Y9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="Z9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AA9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="AB9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AC9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AD9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="AE9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AF9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="AG9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AH9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="AI9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AJ9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AK9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="AL9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AM9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="AN9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AO9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="AP9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AQ9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AR9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="AS9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AT9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="AU9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="AV9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="AW9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AX9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="AY9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="AZ9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BA9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="BB9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BC9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="BD9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="BE9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="BF9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+      <c r="BG9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BH9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>W</v>
+      </c>
+      <c r="BI9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="BJ9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="BK9" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+      <c r="BL9" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="H10" s="26" t="str">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="39"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="39"/>
+      <c r="BK10" s="39"/>
+      <c r="BL10" s="39"/>
+    </row>
+    <row r="11" spans="1:64" s="46" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="5" t="str">
+        <f t="shared" ref="H11:H33" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="45"/>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="45"/>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="45"/>
+      <c r="BI11" s="45"/>
+      <c r="BJ11" s="45"/>
+      <c r="BK11" s="45"/>
+      <c r="BL11" s="45"/>
+    </row>
+    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="49">
+        <v>1</v>
+      </c>
+      <c r="E12" s="50">
+        <f>Project_Start</f>
+        <v>45649</v>
+      </c>
+      <c r="F12" s="50">
+        <f>E12+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+    </row>
+    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="55">
+        <f>E12</f>
+        <v>45649</v>
+      </c>
+      <c r="F13" s="55">
+        <f>E13+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G13" s="150"/>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+    </row>
+    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="54">
+        <v>1</v>
+      </c>
+      <c r="E14" s="55">
+        <f>E13</f>
+        <v>45649</v>
+      </c>
+      <c r="F14" s="55">
+        <f>E14+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+    </row>
+    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="55">
+        <f>E14</f>
+        <v>45649</v>
+      </c>
+      <c r="F15" s="55">
+        <f>E15+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
+      <c r="BL15" s="51"/>
+    </row>
+    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="137" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="51"/>
+      <c r="BL16" s="51"/>
+    </row>
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="141">
+        <v>1</v>
+      </c>
+      <c r="E17" s="140">
+        <f>Project_Start</f>
+        <v>45649</v>
+      </c>
+      <c r="F17" s="140">
+        <f>E17+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+    </row>
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="168" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="151">
+        <v>1</v>
+      </c>
+      <c r="E18" s="142">
+        <f>E17</f>
+        <v>45649</v>
+      </c>
+      <c r="F18" s="142">
+        <f>F17</f>
+        <v>45655</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="167"/>
+    </row>
+    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="148">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="149">
+        <f>E17</f>
+        <v>45649</v>
+      </c>
+      <c r="F19" s="149">
+        <f>F17</f>
+        <v>45655</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+    </row>
+    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="141">
+        <v>1</v>
+      </c>
+      <c r="E20" s="142">
+        <v>45649</v>
+      </c>
+      <c r="F20" s="142">
+        <v>45655</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+    </row>
+    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="65">
+        <f>Project_Start</f>
+        <v>45649</v>
+      </c>
+      <c r="F22" s="65">
+        <f>E22+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+    </row>
+    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="119">
+        <v>0.95</v>
+      </c>
+      <c r="E23" s="65">
+        <v>45649</v>
+      </c>
+      <c r="F23" s="65">
+        <f>E23+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+    </row>
+    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="64">
+        <v>0.95</v>
+      </c>
+      <c r="E24" s="65">
+        <f>E22</f>
+        <v>45649</v>
+      </c>
+      <c r="F24" s="65">
+        <f>E24+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+    </row>
+    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="64">
+        <v>1</v>
+      </c>
+      <c r="E25" s="65">
+        <f>E24</f>
+        <v>45649</v>
+      </c>
+      <c r="F25" s="65">
+        <f>E25+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+    </row>
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="116">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="117">
+        <f>E15</f>
+        <v>45649</v>
+      </c>
+      <c r="F27" s="117">
+        <f>E27+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="51"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="51"/>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27" s="51"/>
+    </row>
+    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="116">
+        <v>0.65</v>
+      </c>
+      <c r="E28" s="117">
+        <f>E15</f>
+        <v>45649</v>
+      </c>
+      <c r="F28" s="117">
+        <f>E28+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51"/>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="51"/>
+      <c r="BB28" s="51"/>
+      <c r="BC28" s="51"/>
+      <c r="BD28" s="51"/>
+      <c r="BE28" s="51"/>
+      <c r="BF28" s="51"/>
+      <c r="BG28" s="51"/>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="51"/>
+      <c r="BL28" s="51"/>
+    </row>
+    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="116">
+        <v>1</v>
+      </c>
+      <c r="E29" s="117">
+        <f>E15</f>
+        <v>45649</v>
+      </c>
+      <c r="F29" s="117">
+        <f>E29+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="51"/>
+      <c r="BC29" s="51"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="51"/>
+      <c r="BH29" s="51"/>
+      <c r="BI29" s="51"/>
+      <c r="BJ29" s="51"/>
+      <c r="BK29" s="51"/>
+      <c r="BL29" s="51"/>
+    </row>
+    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="130">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="131">
+        <f>E17</f>
+        <v>45649</v>
+      </c>
+      <c r="F30" s="132">
+        <f>E30+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="71"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="71"/>
+      <c r="AY30" s="71"/>
+      <c r="AZ30" s="71"/>
+      <c r="BA30" s="71"/>
+      <c r="BB30" s="71"/>
+      <c r="BC30" s="71"/>
+      <c r="BD30" s="71"/>
+      <c r="BE30" s="71"/>
+      <c r="BF30" s="71"/>
+      <c r="BG30" s="71"/>
+      <c r="BH30" s="71"/>
+      <c r="BI30" s="71"/>
+      <c r="BJ30" s="71"/>
+      <c r="BK30" s="71"/>
+      <c r="BL30" s="71"/>
+    </row>
+    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="71"/>
+      <c r="AS31" s="71"/>
+      <c r="AT31" s="71"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="71"/>
+      <c r="AW31" s="71"/>
+      <c r="AX31" s="71"/>
+      <c r="AY31" s="71"/>
+      <c r="AZ31" s="71"/>
+      <c r="BA31" s="71"/>
+      <c r="BB31" s="71"/>
+      <c r="BC31" s="71"/>
+      <c r="BD31" s="71"/>
+      <c r="BE31" s="71"/>
+      <c r="BF31" s="71"/>
+      <c r="BG31" s="71"/>
+      <c r="BH31" s="71"/>
+      <c r="BI31" s="71"/>
+      <c r="BJ31" s="71"/>
+      <c r="BK31" s="71"/>
+      <c r="BL31" s="71"/>
+    </row>
+    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="E32" s="120">
+        <v>45649</v>
+      </c>
+      <c r="F32" s="121">
+        <f>E32+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="51"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="51"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="51"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="51"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+    </row>
+    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="E33" s="123">
+        <v>45649</v>
+      </c>
+      <c r="F33" s="123">
+        <f>E33+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="5">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="51"/>
+      <c r="BC33" s="51"/>
+      <c r="BD33" s="51"/>
+      <c r="BE33" s="51"/>
+      <c r="BF33" s="51"/>
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="51"/>
+      <c r="BI33" s="51"/>
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+    </row>
+    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="74">
+        <v>1</v>
+      </c>
+      <c r="E34" s="123">
+        <f>E30-0</f>
+        <v>45649</v>
+      </c>
+      <c r="F34" s="123">
+        <f>E34+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="51"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="51"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+    </row>
+    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="128">
+        <v>0.3</v>
+      </c>
+      <c r="E35" s="121">
+        <f>E30-0</f>
+        <v>45649</v>
+      </c>
+      <c r="F35" s="121">
+        <f>E35+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="176" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="169"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="172" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="173" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="174">
+        <v>0.6</v>
+      </c>
+      <c r="E37" s="175">
+        <f>Project_Start</f>
+        <v>45649</v>
+      </c>
+      <c r="F37" s="175">
+        <f>E37+6</f>
+        <v>45655</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="16"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="BF7:BL7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AR7:AX7"/>
+    <mergeCell ref="AY7:BE7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D24:D37 D10:D22">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2094ED1D-CFB0-4A9C-AD66-6066D74F7227}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:BL37">
+    <cfRule type="expression" dxfId="75" priority="1">
+      <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:BL15">
+    <cfRule type="expression" dxfId="74" priority="4">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="5">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:BL20">
+    <cfRule type="expression" dxfId="72" priority="13" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="12">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BL25">
+    <cfRule type="expression" dxfId="70" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:BL30">
+    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="10">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:BL35">
+    <cfRule type="expression" dxfId="66" priority="8">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="9" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL37">
+    <cfRule type="expression" dxfId="64" priority="2">
+      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="3">
+      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{F072706C-7AFB-4B70-8633-BC1770B37138}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{6D04CDDB-E102-4780-8D0F-EE8FC28048EA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{F5C24641-6915-489D-9269-F40DCED81CE8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{435322D1-5B0A-4C95-9B72-49268EACEC3B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{FECE8DB3-43C2-4562-986A-23F42AD7048A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{072130CD-806A-460B-8D71-C34727318E6F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{C361EB83-1C55-4EB5-8E78-7527771FA5B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{56CC3F4C-9089-472B-B012-F284E16C1EE4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{62D297CD-07AD-4BF7-9229-348A347998B1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A21 A26" xr:uid="{CB39EE16-9438-49FF-A63C-DFB1BC6E62CE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A31" xr:uid="{7A1C99DD-082A-4D46-8D60-23047FB35724}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2094ED1D-CFB0-4A9C-AD66-6066D74F7227}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D37 D10:D22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DCC4C-D2F8-460F-95CB-27E4E73B61F1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BL45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Z1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
+    <col min="9" max="65" width="2.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" ht="114" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="14"/>
+      <c r="B1" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="178" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="180">
+        <v>45639</v>
+      </c>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
+      <c r="I2" s="178" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="182">
+        <v>4</v>
+      </c>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+    </row>
+    <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
+      <c r="B3" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+    </row>
+    <row r="4" spans="1:64" ht="26" x14ac:dyDescent="0.4">
+      <c r="B4" s="96"/>
+      <c r="C4" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+    </row>
+    <row r="5" spans="1:64" ht="26" x14ac:dyDescent="0.4">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+    </row>
+    <row r="6" spans="1:64" s="26" customFormat="1" ht="20" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="I7" s="183">
+        <f>I8</f>
+        <v>45656</v>
+      </c>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
+        <f>P8</f>
+        <v>45663</v>
+      </c>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
+        <f>W8</f>
+        <v>45670</v>
+      </c>
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
+        <f>AD8</f>
+        <v>45677</v>
+      </c>
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
+        <f>AK8</f>
+        <v>45684</v>
+      </c>
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
+        <f>AR8</f>
+        <v>45691</v>
+      </c>
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
+        <f>AY8</f>
+        <v>45698</v>
+      </c>
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
+        <f>BF8</f>
+        <v>45705</v>
+      </c>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
+    </row>
+    <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="31">
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>45656</v>
+      </c>
+      <c r="J8" s="31">
+        <f>I8+1</f>
+        <v>45657</v>
+      </c>
+      <c r="K8" s="31">
+        <f t="shared" ref="K8:AX8" si="0">J8+1</f>
+        <v>45658</v>
+      </c>
+      <c r="L8" s="31">
+        <f t="shared" si="0"/>
+        <v>45659</v>
+      </c>
+      <c r="M8" s="31">
+        <f t="shared" si="0"/>
+        <v>45660</v>
+      </c>
+      <c r="N8" s="31">
+        <f t="shared" si="0"/>
+        <v>45661</v>
+      </c>
+      <c r="O8" s="32">
+        <f t="shared" si="0"/>
+        <v>45662</v>
+      </c>
+      <c r="P8" s="33">
+        <f>O8+1</f>
+        <v>45663</v>
+      </c>
+      <c r="Q8" s="31">
+        <f>P8+1</f>
+        <v>45664</v>
+      </c>
+      <c r="R8" s="31">
+        <f t="shared" si="0"/>
+        <v>45665</v>
+      </c>
+      <c r="S8" s="31">
+        <f t="shared" si="0"/>
+        <v>45666</v>
+      </c>
+      <c r="T8" s="31">
+        <f t="shared" si="0"/>
+        <v>45667</v>
+      </c>
+      <c r="U8" s="31">
+        <f t="shared" si="0"/>
+        <v>45668</v>
+      </c>
+      <c r="V8" s="32">
+        <f t="shared" si="0"/>
+        <v>45669</v>
+      </c>
+      <c r="W8" s="33">
+        <f>V8+1</f>
+        <v>45670</v>
+      </c>
+      <c r="X8" s="31">
+        <f>W8+1</f>
+        <v>45671</v>
+      </c>
+      <c r="Y8" s="31">
+        <f t="shared" si="0"/>
+        <v>45672</v>
+      </c>
+      <c r="Z8" s="31">
+        <f t="shared" si="0"/>
+        <v>45673</v>
+      </c>
+      <c r="AA8" s="31">
+        <f t="shared" si="0"/>
+        <v>45674</v>
+      </c>
+      <c r="AB8" s="31">
+        <f t="shared" si="0"/>
+        <v>45675</v>
+      </c>
+      <c r="AC8" s="32">
+        <f t="shared" si="0"/>
+        <v>45676</v>
+      </c>
+      <c r="AD8" s="33">
+        <f>AC8+1</f>
+        <v>45677</v>
+      </c>
+      <c r="AE8" s="31">
+        <f>AD8+1</f>
+        <v>45678</v>
+      </c>
+      <c r="AF8" s="31">
+        <f t="shared" si="0"/>
+        <v>45679</v>
+      </c>
+      <c r="AG8" s="31">
+        <f t="shared" si="0"/>
+        <v>45680</v>
+      </c>
+      <c r="AH8" s="31">
+        <f t="shared" si="0"/>
+        <v>45681</v>
+      </c>
+      <c r="AI8" s="31">
+        <f t="shared" si="0"/>
+        <v>45682</v>
+      </c>
+      <c r="AJ8" s="32">
+        <f t="shared" si="0"/>
+        <v>45683</v>
+      </c>
+      <c r="AK8" s="33">
+        <f>AJ8+1</f>
+        <v>45684</v>
+      </c>
+      <c r="AL8" s="31">
+        <f>AK8+1</f>
+        <v>45685</v>
+      </c>
+      <c r="AM8" s="31">
+        <f t="shared" si="0"/>
+        <v>45686</v>
+      </c>
+      <c r="AN8" s="31">
+        <f t="shared" si="0"/>
+        <v>45687</v>
+      </c>
+      <c r="AO8" s="31">
+        <f t="shared" si="0"/>
+        <v>45688</v>
+      </c>
+      <c r="AP8" s="31">
+        <f t="shared" si="0"/>
+        <v>45689</v>
+      </c>
+      <c r="AQ8" s="32">
+        <f t="shared" si="0"/>
+        <v>45690</v>
+      </c>
+      <c r="AR8" s="33">
+        <f>AQ8+1</f>
+        <v>45691</v>
+      </c>
+      <c r="AS8" s="31">
+        <f>AR8+1</f>
+        <v>45692</v>
+      </c>
+      <c r="AT8" s="31">
+        <f t="shared" si="0"/>
+        <v>45693</v>
+      </c>
+      <c r="AU8" s="31">
+        <f t="shared" si="0"/>
+        <v>45694</v>
+      </c>
+      <c r="AV8" s="31">
+        <f t="shared" si="0"/>
+        <v>45695</v>
+      </c>
+      <c r="AW8" s="31">
+        <f t="shared" si="0"/>
+        <v>45696</v>
+      </c>
+      <c r="AX8" s="32">
+        <f t="shared" si="0"/>
+        <v>45697</v>
+      </c>
+      <c r="AY8" s="33">
+        <f>AX8+1</f>
+        <v>45698</v>
+      </c>
+      <c r="AZ8" s="31">
+        <f>AY8+1</f>
+        <v>45699</v>
+      </c>
+      <c r="BA8" s="31">
+        <f t="shared" ref="BA8:BE8" si="1">AZ8+1</f>
+        <v>45700</v>
+      </c>
+      <c r="BB8" s="31">
+        <f t="shared" si="1"/>
+        <v>45701</v>
+      </c>
+      <c r="BC8" s="31">
+        <f t="shared" si="1"/>
+        <v>45702</v>
+      </c>
+      <c r="BD8" s="31">
+        <f t="shared" si="1"/>
+        <v>45703</v>
+      </c>
+      <c r="BE8" s="32">
+        <f t="shared" si="1"/>
+        <v>45704</v>
+      </c>
+      <c r="BF8" s="33">
+        <f>BE8+1</f>
+        <v>45705</v>
+      </c>
+      <c r="BG8" s="31">
+        <f>BF8+1</f>
+        <v>45706</v>
+      </c>
+      <c r="BH8" s="31">
+        <f t="shared" ref="BH8:BL8" si="2">BG8+1</f>
+        <v>45707</v>
+      </c>
+      <c r="BI8" s="31">
+        <f t="shared" si="2"/>
+        <v>45708</v>
+      </c>
+      <c r="BJ8" s="31">
+        <f t="shared" si="2"/>
+        <v>45709</v>
+      </c>
+      <c r="BK8" s="31">
+        <f t="shared" si="2"/>
+        <v>45710</v>
+      </c>
+      <c r="BL8" s="31">
+        <f t="shared" si="2"/>
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -14909,13 +17591,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -14927,3279 +17602,6 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D10:D42">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D932CC72-CCB2-4D6F-99BC-73083AB926F8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL40">
-    <cfRule type="expression" dxfId="71" priority="1">
-      <formula>AND(TODAY()&gt;=I$8, TODAY()&lt;J$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL16">
-    <cfRule type="expression" dxfId="70" priority="6">
-      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:BL22 I24:BL28">
-    <cfRule type="expression" dxfId="68" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4">
-      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL34">
-    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="2">
-      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL40">
-    <cfRule type="expression" dxfId="64" priority="9">
-      <formula>AND(task_start&lt;=I$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="10" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$8,task_start&lt;J$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="13">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2:Q5" xr:uid="{4712E543-1AD4-4F3D-834D-185C8F1C5A14}">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{095B9BEB-57F5-4280-B7BF-269846939CD6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2:A5" xr:uid="{48F761CC-E1B2-465F-9337-A25EC74E3F89}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A6" xr:uid="{E3E4FA78-B3EB-45E3-B147-53DAF93612EA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A7" xr:uid="{587F65EA-127A-479C-9AE3-C84522C01573}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A8:A9" xr:uid="{D36AEB83-DA23-4345-9DE4-5344459A8B51}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A11" xr:uid="{73B8C126-7526-435C-875B-154659F0F08C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A12" xr:uid="{803AF959-9481-4614-B51D-478752A0D368}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A13" xr:uid="{233F8E46-9877-4A58-97D5-2268F619917E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A17 A23" xr:uid="{B679A301-5084-422C-B993-06AEC1F95013}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{C2D66944-FD6B-4B06-B2C3-CCFC40906A76}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{CA003AC1-ECDB-40AD-93D1-B1982815FCD6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{B820A98B-A97F-46E2-AA80-C02087ABF7B1}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter differentFirst="1" scaleWithDoc="0">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D932CC72-CCB2-4D6F-99BC-73083AB926F8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D10:D42</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DCC4C-D2F8-460F-95CB-27E4E73B61F1}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BL45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="71" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Z1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:64" ht="114" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="14"/>
-      <c r="B1" s="118" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="187">
-        <v>45639</v>
-      </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="189">
-        <v>4</v>
-      </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-    </row>
-    <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
-      <c r="B3" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-    </row>
-    <row r="4" spans="1:64" ht="26" x14ac:dyDescent="0.4">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-    </row>
-    <row r="5" spans="1:64" ht="26" x14ac:dyDescent="0.4">
-      <c r="B5" s="96"/>
-      <c r="C5" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-    </row>
-    <row r="6" spans="1:64" s="26" customFormat="1" ht="20" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="I7" s="190">
-        <f>I8</f>
-        <v>45656</v>
-      </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
-        <f>P8</f>
-        <v>45663</v>
-      </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
-        <f>W8</f>
-        <v>45670</v>
-      </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
-        <f>AD8</f>
-        <v>45677</v>
-      </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
-        <f>AK8</f>
-        <v>45684</v>
-      </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
-        <f>AR8</f>
-        <v>45691</v>
-      </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
-        <f>AY8</f>
-        <v>45698</v>
-      </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
-        <f>BF8</f>
-        <v>45705</v>
-      </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
-    </row>
-    <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="31">
-        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45656</v>
-      </c>
-      <c r="J8" s="31">
-        <f>I8+1</f>
-        <v>45657</v>
-      </c>
-      <c r="K8" s="31">
-        <f t="shared" ref="K8:AX8" si="0">J8+1</f>
-        <v>45658</v>
-      </c>
-      <c r="L8" s="31">
-        <f t="shared" si="0"/>
-        <v>45659</v>
-      </c>
-      <c r="M8" s="31">
-        <f t="shared" si="0"/>
-        <v>45660</v>
-      </c>
-      <c r="N8" s="31">
-        <f t="shared" si="0"/>
-        <v>45661</v>
-      </c>
-      <c r="O8" s="32">
-        <f t="shared" si="0"/>
-        <v>45662</v>
-      </c>
-      <c r="P8" s="33">
-        <f>O8+1</f>
-        <v>45663</v>
-      </c>
-      <c r="Q8" s="31">
-        <f>P8+1</f>
-        <v>45664</v>
-      </c>
-      <c r="R8" s="31">
-        <f t="shared" si="0"/>
-        <v>45665</v>
-      </c>
-      <c r="S8" s="31">
-        <f t="shared" si="0"/>
-        <v>45666</v>
-      </c>
-      <c r="T8" s="31">
-        <f t="shared" si="0"/>
-        <v>45667</v>
-      </c>
-      <c r="U8" s="31">
-        <f t="shared" si="0"/>
-        <v>45668</v>
-      </c>
-      <c r="V8" s="32">
-        <f t="shared" si="0"/>
-        <v>45669</v>
-      </c>
-      <c r="W8" s="33">
-        <f>V8+1</f>
-        <v>45670</v>
-      </c>
-      <c r="X8" s="31">
-        <f>W8+1</f>
-        <v>45671</v>
-      </c>
-      <c r="Y8" s="31">
-        <f t="shared" si="0"/>
-        <v>45672</v>
-      </c>
-      <c r="Z8" s="31">
-        <f t="shared" si="0"/>
-        <v>45673</v>
-      </c>
-      <c r="AA8" s="31">
-        <f t="shared" si="0"/>
-        <v>45674</v>
-      </c>
-      <c r="AB8" s="31">
-        <f t="shared" si="0"/>
-        <v>45675</v>
-      </c>
-      <c r="AC8" s="32">
-        <f t="shared" si="0"/>
-        <v>45676</v>
-      </c>
-      <c r="AD8" s="33">
-        <f>AC8+1</f>
-        <v>45677</v>
-      </c>
-      <c r="AE8" s="31">
-        <f>AD8+1</f>
-        <v>45678</v>
-      </c>
-      <c r="AF8" s="31">
-        <f t="shared" si="0"/>
-        <v>45679</v>
-      </c>
-      <c r="AG8" s="31">
-        <f t="shared" si="0"/>
-        <v>45680</v>
-      </c>
-      <c r="AH8" s="31">
-        <f t="shared" si="0"/>
-        <v>45681</v>
-      </c>
-      <c r="AI8" s="31">
-        <f t="shared" si="0"/>
-        <v>45682</v>
-      </c>
-      <c r="AJ8" s="32">
-        <f t="shared" si="0"/>
-        <v>45683</v>
-      </c>
-      <c r="AK8" s="33">
-        <f>AJ8+1</f>
-        <v>45684</v>
-      </c>
-      <c r="AL8" s="31">
-        <f>AK8+1</f>
-        <v>45685</v>
-      </c>
-      <c r="AM8" s="31">
-        <f t="shared" si="0"/>
-        <v>45686</v>
-      </c>
-      <c r="AN8" s="31">
-        <f t="shared" si="0"/>
-        <v>45687</v>
-      </c>
-      <c r="AO8" s="31">
-        <f t="shared" si="0"/>
-        <v>45688</v>
-      </c>
-      <c r="AP8" s="31">
-        <f t="shared" si="0"/>
-        <v>45689</v>
-      </c>
-      <c r="AQ8" s="32">
-        <f t="shared" si="0"/>
-        <v>45690</v>
-      </c>
-      <c r="AR8" s="33">
-        <f>AQ8+1</f>
-        <v>45691</v>
-      </c>
-      <c r="AS8" s="31">
-        <f>AR8+1</f>
-        <v>45692</v>
-      </c>
-      <c r="AT8" s="31">
-        <f t="shared" si="0"/>
-        <v>45693</v>
-      </c>
-      <c r="AU8" s="31">
-        <f t="shared" si="0"/>
-        <v>45694</v>
-      </c>
-      <c r="AV8" s="31">
-        <f t="shared" si="0"/>
-        <v>45695</v>
-      </c>
-      <c r="AW8" s="31">
-        <f t="shared" si="0"/>
-        <v>45696</v>
-      </c>
-      <c r="AX8" s="32">
-        <f t="shared" si="0"/>
-        <v>45697</v>
-      </c>
-      <c r="AY8" s="33">
-        <f>AX8+1</f>
-        <v>45698</v>
-      </c>
-      <c r="AZ8" s="31">
-        <f>AY8+1</f>
-        <v>45699</v>
-      </c>
-      <c r="BA8" s="31">
-        <f t="shared" ref="BA8:BE8" si="1">AZ8+1</f>
-        <v>45700</v>
-      </c>
-      <c r="BB8" s="31">
-        <f t="shared" si="1"/>
-        <v>45701</v>
-      </c>
-      <c r="BC8" s="31">
-        <f t="shared" si="1"/>
-        <v>45702</v>
-      </c>
-      <c r="BD8" s="31">
-        <f t="shared" si="1"/>
-        <v>45703</v>
-      </c>
-      <c r="BE8" s="32">
-        <f t="shared" si="1"/>
-        <v>45704</v>
-      </c>
-      <c r="BF8" s="33">
-        <f>BE8+1</f>
-        <v>45705</v>
-      </c>
-      <c r="BG8" s="31">
-        <f>BF8+1</f>
-        <v>45706</v>
-      </c>
-      <c r="BH8" s="31">
-        <f t="shared" ref="BH8:BL8" si="2">BG8+1</f>
-        <v>45707</v>
-      </c>
-      <c r="BI8" s="31">
-        <f t="shared" si="2"/>
-        <v>45708</v>
-      </c>
-      <c r="BJ8" s="31">
-        <f t="shared" si="2"/>
-        <v>45709</v>
-      </c>
-      <c r="BK8" s="31">
-        <f t="shared" si="2"/>
-        <v>45710</v>
-      </c>
-      <c r="BL8" s="31">
-        <f t="shared" si="2"/>
-        <v>45711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="I9" s="34" t="str">
-        <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
-        <v>M</v>
-      </c>
-      <c r="J9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="K9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="L9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="M9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="N9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="O9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="P9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="Q9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="R9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="S9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="T9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="U9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="V9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="W9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="X9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="Y9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="Z9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AA9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AB9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AC9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AD9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AE9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AF9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="AG9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AH9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AI9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AJ9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AK9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AL9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AM9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="AN9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AO9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AP9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AQ9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AR9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AS9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AT9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="AU9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="AV9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="AW9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AX9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="AY9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="AZ9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BA9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="BB9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BC9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="BD9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BE9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BF9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="BG9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BH9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="BI9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BJ9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="BK9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-      <c r="BL9" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="10" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="H10" s="26" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="39"/>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="39"/>
-      <c r="BG10" s="39"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="39"/>
-      <c r="BJ10" s="39"/>
-      <c r="BK10" s="39"/>
-      <c r="BL10" s="39"/>
-    </row>
-    <row r="11" spans="1:64" s="46" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="5" t="str">
-        <f t="shared" ref="H11:H42" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="45"/>
-    </row>
-    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="50">
-        <f>Project_Start</f>
-        <v>45639</v>
-      </c>
-      <c r="F12" s="50">
-        <f>E12+3</f>
-        <v>45642</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-    </row>
-    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="54">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="55">
-        <f>F12</f>
-        <v>45642</v>
-      </c>
-      <c r="F13" s="55">
-        <f>E13+2</f>
-        <v>45644</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-    </row>
-    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="55">
-        <f>F13</f>
-        <v>45644</v>
-      </c>
-      <c r="F14" s="55">
-        <f>E14+4</f>
-        <v>45648</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-    </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="54">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="55">
-        <f>F14</f>
-        <v>45648</v>
-      </c>
-      <c r="F15" s="55">
-        <f>E15+5</f>
-        <v>45653</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="5">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
-    </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-    </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="65">
-        <f>E16+1</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="65">
-        <f>E18+4</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51"/>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="51"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="51"/>
-      <c r="BH18" s="51"/>
-      <c r="BI18" s="51"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="51"/>
-    </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="65">
-        <f>E18+2</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="65">
-        <f>E19+5</f>
-        <v>8</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="51"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="51"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="51"/>
-      <c r="BL19" s="51"/>
-    </row>
-    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65">
-        <f>F19</f>
-        <v>8</v>
-      </c>
-      <c r="F20" s="65">
-        <f>E20+3</f>
-        <v>11</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="51"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="51"/>
-    </row>
-    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65">
-        <f>E20</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="65">
-        <f>E21+2</f>
-        <v>10</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="51"/>
-    </row>
-    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65">
-        <f>E21</f>
-        <v>8</v>
-      </c>
-      <c r="F22" s="65">
-        <f>E22+3</f>
-        <v>11</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
-    </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="117">
-        <f>E15+1</f>
-        <v>45649</v>
-      </c>
-      <c r="F24" s="117">
-        <f>E24+4</f>
-        <v>45653</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51"/>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51"/>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="51"/>
-      <c r="BB24" s="51"/>
-      <c r="BC24" s="51"/>
-      <c r="BD24" s="51"/>
-      <c r="BE24" s="51"/>
-      <c r="BF24" s="51"/>
-      <c r="BG24" s="51"/>
-      <c r="BH24" s="51"/>
-      <c r="BI24" s="51"/>
-      <c r="BJ24" s="51"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="51"/>
-    </row>
-    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="114" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="116">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="117">
-        <f>E24+2</f>
-        <v>45651</v>
-      </c>
-      <c r="F25" s="117">
-        <f>E25+5</f>
-        <v>45656</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="5">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="51"/>
-      <c r="AS25" s="51"/>
-      <c r="AT25" s="51"/>
-      <c r="AU25" s="51"/>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
-      <c r="BB25" s="51"/>
-      <c r="BC25" s="51"/>
-      <c r="BD25" s="51"/>
-      <c r="BE25" s="51"/>
-      <c r="BF25" s="51"/>
-      <c r="BG25" s="51"/>
-      <c r="BH25" s="51"/>
-      <c r="BI25" s="51"/>
-      <c r="BJ25" s="51"/>
-      <c r="BK25" s="51"/>
-      <c r="BL25" s="51"/>
-    </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117">
-        <f>F25</f>
-        <v>45656</v>
-      </c>
-      <c r="F26" s="117">
-        <f>E26+3</f>
-        <v>45659</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="51"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="51"/>
-      <c r="BJ26" s="51"/>
-      <c r="BK26" s="51"/>
-      <c r="BL26" s="51"/>
-    </row>
-    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117">
-        <f>E26</f>
-        <v>45656</v>
-      </c>
-      <c r="F27" s="117">
-        <f>E27+2</f>
-        <v>45658</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="5">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="51"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="51"/>
-      <c r="BB27" s="51"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="51"/>
-      <c r="BF27" s="51"/>
-      <c r="BG27" s="51"/>
-      <c r="BH27" s="51"/>
-      <c r="BI27" s="51"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="51"/>
-      <c r="BL27" s="51"/>
-    </row>
-    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117">
-        <f>E27</f>
-        <v>45656</v>
-      </c>
-      <c r="F28" s="117">
-        <f>E28+3</f>
-        <v>45659</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="51"/>
-      <c r="BB28" s="51"/>
-      <c r="BC28" s="51"/>
-      <c r="BD28" s="51"/>
-      <c r="BE28" s="51"/>
-      <c r="BF28" s="51"/>
-      <c r="BG28" s="51"/>
-      <c r="BH28" s="51"/>
-      <c r="BI28" s="51"/>
-      <c r="BJ28" s="51"/>
-      <c r="BK28" s="51"/>
-      <c r="BL28" s="51"/>
-    </row>
-    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="71"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="71"/>
-      <c r="AR29" s="71"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="71"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="71"/>
-      <c r="BE29" s="71"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="71"/>
-      <c r="BH29" s="71"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="71"/>
-      <c r="BK29" s="71"/>
-      <c r="BL29" s="71"/>
-    </row>
-    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="75">
-        <f>E12+15</f>
-        <v>45654</v>
-      </c>
-      <c r="F30" s="75">
-        <f>E30+5</f>
-        <v>45659</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="5">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="51"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="51"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="51"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="51"/>
-      <c r="BG30" s="51"/>
-      <c r="BH30" s="51"/>
-      <c r="BI30" s="51"/>
-      <c r="BJ30" s="51"/>
-      <c r="BK30" s="51"/>
-      <c r="BL30" s="51"/>
-    </row>
-    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="75">
-        <f>F30+1</f>
-        <v>45660</v>
-      </c>
-      <c r="F31" s="75">
-        <f>E31+4</f>
-        <v>45664</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="51"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
-      <c r="AO31" s="51"/>
-      <c r="AP31" s="51"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
-      <c r="AS31" s="51"/>
-      <c r="AT31" s="51"/>
-      <c r="AU31" s="51"/>
-      <c r="AV31" s="51"/>
-      <c r="AW31" s="51"/>
-      <c r="AX31" s="51"/>
-      <c r="AY31" s="51"/>
-      <c r="AZ31" s="51"/>
-      <c r="BA31" s="51"/>
-      <c r="BB31" s="51"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="51"/>
-      <c r="BI31" s="51"/>
-      <c r="BJ31" s="51"/>
-      <c r="BK31" s="51"/>
-      <c r="BL31" s="51"/>
-    </row>
-    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="75">
-        <f>E31+5</f>
-        <v>45665</v>
-      </c>
-      <c r="F32" s="75">
-        <f>E32+5</f>
-        <v>45670</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="5">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="51"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="51"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="51"/>
-      <c r="BD32" s="51"/>
-      <c r="BE32" s="51"/>
-      <c r="BF32" s="51"/>
-      <c r="BG32" s="51"/>
-      <c r="BH32" s="51"/>
-      <c r="BI32" s="51"/>
-      <c r="BJ32" s="51"/>
-      <c r="BK32" s="51"/>
-      <c r="BL32" s="51"/>
-    </row>
-    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="75">
-        <f>F32+1</f>
-        <v>45671</v>
-      </c>
-      <c r="F33" s="75">
-        <f>E33+4</f>
-        <v>45675</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="51"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51"/>
-      <c r="AN33" s="51"/>
-      <c r="AO33" s="51"/>
-      <c r="AP33" s="51"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
-      <c r="AS33" s="51"/>
-      <c r="AT33" s="51"/>
-      <c r="AU33" s="51"/>
-      <c r="AV33" s="51"/>
-      <c r="AW33" s="51"/>
-      <c r="AX33" s="51"/>
-      <c r="AY33" s="51"/>
-      <c r="AZ33" s="51"/>
-      <c r="BA33" s="51"/>
-      <c r="BB33" s="51"/>
-      <c r="BC33" s="51"/>
-      <c r="BD33" s="51"/>
-      <c r="BE33" s="51"/>
-      <c r="BF33" s="51"/>
-      <c r="BG33" s="51"/>
-      <c r="BH33" s="51"/>
-      <c r="BI33" s="51"/>
-      <c r="BJ33" s="51"/>
-      <c r="BK33" s="51"/>
-      <c r="BL33" s="51"/>
-    </row>
-    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="74">
-        <v>0.25</v>
-      </c>
-      <c r="E34" s="75">
-        <f>E32</f>
-        <v>45665</v>
-      </c>
-      <c r="F34" s="75">
-        <f>E34+4</f>
-        <v>45669</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
-      <c r="AN34" s="51"/>
-      <c r="AO34" s="51"/>
-      <c r="AP34" s="51"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
-      <c r="AS34" s="51"/>
-      <c r="AT34" s="51"/>
-      <c r="AU34" s="51"/>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
-      <c r="BB34" s="51"/>
-      <c r="BC34" s="51"/>
-      <c r="BD34" s="51"/>
-      <c r="BE34" s="51"/>
-      <c r="BF34" s="51"/>
-      <c r="BG34" s="51"/>
-      <c r="BH34" s="51"/>
-      <c r="BI34" s="51"/>
-      <c r="BJ34" s="51"/>
-      <c r="BK34" s="51"/>
-      <c r="BL34" s="51"/>
-    </row>
-    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="81"/>
-      <c r="AF35" s="81"/>
-      <c r="AG35" s="81"/>
-      <c r="AH35" s="81"/>
-      <c r="AI35" s="81"/>
-      <c r="AJ35" s="81"/>
-      <c r="AK35" s="81"/>
-      <c r="AL35" s="81"/>
-      <c r="AM35" s="81"/>
-      <c r="AN35" s="81"/>
-      <c r="AO35" s="81"/>
-      <c r="AP35" s="81"/>
-      <c r="AQ35" s="81"/>
-      <c r="AR35" s="81"/>
-      <c r="AS35" s="81"/>
-      <c r="AT35" s="81"/>
-      <c r="AU35" s="81"/>
-      <c r="AV35" s="81"/>
-      <c r="AW35" s="81"/>
-      <c r="AX35" s="81"/>
-      <c r="AY35" s="81"/>
-      <c r="AZ35" s="81"/>
-      <c r="BA35" s="81"/>
-      <c r="BB35" s="81"/>
-      <c r="BC35" s="81"/>
-      <c r="BD35" s="81"/>
-      <c r="BE35" s="81"/>
-      <c r="BF35" s="81"/>
-      <c r="BG35" s="81"/>
-      <c r="BH35" s="81"/>
-      <c r="BI35" s="81"/>
-      <c r="BJ35" s="81"/>
-      <c r="BK35" s="81"/>
-      <c r="BL35" s="81"/>
-    </row>
-    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="85">
-        <f>E30+2</f>
-        <v>45656</v>
-      </c>
-      <c r="F36" s="85">
-        <f>E36+3</f>
-        <v>45659</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="51"/>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
-      <c r="BB36" s="51"/>
-      <c r="BC36" s="51"/>
-      <c r="BD36" s="51"/>
-      <c r="BE36" s="51"/>
-      <c r="BF36" s="51"/>
-      <c r="BG36" s="51"/>
-      <c r="BH36" s="51"/>
-      <c r="BI36" s="51"/>
-      <c r="BJ36" s="51"/>
-      <c r="BK36" s="51"/>
-      <c r="BL36" s="51"/>
-    </row>
-    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="85">
-        <f>F36</f>
-        <v>45659</v>
-      </c>
-      <c r="F37" s="85">
-        <f>E37+4</f>
-        <v>45663</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="5">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="51"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
-      <c r="AN37" s="51"/>
-      <c r="AO37" s="51"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="51"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="51"/>
-      <c r="AX37" s="51"/>
-      <c r="AY37" s="51"/>
-      <c r="AZ37" s="51"/>
-      <c r="BA37" s="51"/>
-      <c r="BB37" s="51"/>
-      <c r="BC37" s="51"/>
-      <c r="BD37" s="51"/>
-      <c r="BE37" s="51"/>
-      <c r="BF37" s="51"/>
-      <c r="BG37" s="51"/>
-      <c r="BH37" s="51"/>
-      <c r="BI37" s="51"/>
-      <c r="BJ37" s="51"/>
-      <c r="BK37" s="51"/>
-      <c r="BL37" s="51"/>
-    </row>
-    <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="84">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="85">
-        <f>F37+1</f>
-        <v>45664</v>
-      </c>
-      <c r="F38" s="85">
-        <f>E38+3</f>
-        <v>45667</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="5">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51"/>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="51"/>
-      <c r="AV38" s="51"/>
-      <c r="AW38" s="51"/>
-      <c r="AX38" s="51"/>
-      <c r="AY38" s="51"/>
-      <c r="AZ38" s="51"/>
-      <c r="BA38" s="51"/>
-      <c r="BB38" s="51"/>
-      <c r="BC38" s="51"/>
-      <c r="BD38" s="51"/>
-      <c r="BE38" s="51"/>
-      <c r="BF38" s="51"/>
-      <c r="BG38" s="51"/>
-      <c r="BH38" s="51"/>
-      <c r="BI38" s="51"/>
-      <c r="BJ38" s="51"/>
-      <c r="BK38" s="51"/>
-      <c r="BL38" s="51"/>
-    </row>
-    <row r="39" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AE39" s="51"/>
-      <c r="AF39" s="51"/>
-      <c r="AG39" s="51"/>
-      <c r="AH39" s="51"/>
-      <c r="AI39" s="51"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="51"/>
-      <c r="AV39" s="51"/>
-      <c r="AW39" s="51"/>
-      <c r="AX39" s="51"/>
-      <c r="AY39" s="51"/>
-      <c r="AZ39" s="51"/>
-      <c r="BA39" s="51"/>
-      <c r="BB39" s="51"/>
-      <c r="BC39" s="51"/>
-      <c r="BD39" s="51"/>
-      <c r="BE39" s="51"/>
-      <c r="BF39" s="51"/>
-      <c r="BG39" s="51"/>
-      <c r="BH39" s="51"/>
-      <c r="BI39" s="51"/>
-      <c r="BJ39" s="51"/>
-      <c r="BK39" s="51"/>
-      <c r="BL39" s="51"/>
-    </row>
-    <row r="40" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="51"/>
-      <c r="AP40" s="51"/>
-      <c r="AQ40" s="51"/>
-      <c r="AR40" s="51"/>
-      <c r="AS40" s="51"/>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="51"/>
-      <c r="AV40" s="51"/>
-      <c r="AW40" s="51"/>
-      <c r="AX40" s="51"/>
-      <c r="AY40" s="51"/>
-      <c r="AZ40" s="51"/>
-      <c r="BA40" s="51"/>
-      <c r="BB40" s="51"/>
-      <c r="BC40" s="51"/>
-      <c r="BD40" s="51"/>
-      <c r="BE40" s="51"/>
-      <c r="BF40" s="51"/>
-      <c r="BG40" s="51"/>
-      <c r="BH40" s="51"/>
-      <c r="BI40" s="51"/>
-      <c r="BJ40" s="51"/>
-      <c r="BK40" s="51"/>
-      <c r="BL40" s="51"/>
-    </row>
-    <row r="41" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="45"/>
-      <c r="AK41" s="45"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="45"/>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
-      <c r="AT41" s="45"/>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="45"/>
-      <c r="AW41" s="45"/>
-      <c r="AX41" s="45"/>
-      <c r="AY41" s="45"/>
-      <c r="AZ41" s="45"/>
-      <c r="BA41" s="45"/>
-      <c r="BB41" s="45"/>
-      <c r="BC41" s="45"/>
-      <c r="BD41" s="45"/>
-      <c r="BE41" s="45"/>
-      <c r="BF41" s="45"/>
-      <c r="BG41" s="45"/>
-      <c r="BH41" s="45"/>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="45"/>
-      <c r="BL41" s="45"/>
-    </row>
-    <row r="42" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="95"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="95"/>
-      <c r="AA42" s="95"/>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="95"/>
-      <c r="AJ42" s="95"/>
-      <c r="AK42" s="95"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="95"/>
-      <c r="AN42" s="95"/>
-      <c r="AO42" s="95"/>
-      <c r="AP42" s="95"/>
-      <c r="AQ42" s="95"/>
-      <c r="AR42" s="95"/>
-      <c r="AS42" s="95"/>
-      <c r="AT42" s="95"/>
-      <c r="AU42" s="95"/>
-      <c r="AV42" s="95"/>
-      <c r="AW42" s="95"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="95"/>
-      <c r="AZ42" s="95"/>
-      <c r="BA42" s="95"/>
-      <c r="BB42" s="95"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="95"/>
-      <c r="BE42" s="95"/>
-      <c r="BF42" s="95"/>
-      <c r="BG42" s="95"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="95"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="95"/>
-      <c r="BL42" s="95"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="16"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="I2:O2"/>
@@ -18207,17 +17609,6 @@
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="P7:V7"/>
     <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="BF7:BL7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AR7:AX7"/>
-    <mergeCell ref="AY7:BE7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -18351,28 +17742,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -18384,28 +17775,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>5</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -18503,102 +17894,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45663</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45670</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45677</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45684</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45691</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45698</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45705</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45712</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -18827,12 +18218,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -21491,13 +20882,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -21509,6 +20893,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -21642,28 +21033,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -21675,28 +21066,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>6</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -21794,102 +21185,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45670</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45677</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45684</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45691</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45698</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45705</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45712</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45719</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -22118,12 +21509,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -24782,13 +24173,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -24800,6 +24184,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -24933,28 +24324,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -24966,28 +24357,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>7</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -25083,102 +24474,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45677</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45684</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45691</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45698</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45705</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45712</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45719</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45726</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -25407,12 +24798,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -28027,13 +27418,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -28045,6 +27429,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -28178,28 +27569,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -28211,28 +27602,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>8</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -28328,102 +27719,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45684</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45691</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45698</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45705</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45712</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45719</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45726</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45733</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -28652,12 +28043,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -31272,13 +30663,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -31290,6 +30674,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -31423,28 +30814,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="187">
+      <c r="Q1" s="180">
         <v>45639</v>
       </c>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
@@ -31456,28 +30847,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="189">
+      <c r="Q2" s="182">
         <v>9</v>
       </c>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
     </row>
     <row r="3" spans="1:64" ht="26" x14ac:dyDescent="0.4">
       <c r="B3" s="96" t="s">
@@ -31573,102 +30964,102 @@
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="I7" s="190">
+      <c r="I7" s="183">
         <f>I8</f>
         <v>45691</v>
       </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177">
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184">
         <f>P8</f>
         <v>45698</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177">
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184">
         <f>W8</f>
         <v>45705</v>
       </c>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="177"/>
-      <c r="Z7" s="177"/>
-      <c r="AA7" s="177"/>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="177">
+      <c r="X7" s="184"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="184"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
+      <c r="AD7" s="184">
         <f>AD8</f>
         <v>45712</v>
       </c>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="177"/>
-      <c r="AG7" s="177"/>
-      <c r="AH7" s="177"/>
-      <c r="AI7" s="177"/>
-      <c r="AJ7" s="177"/>
-      <c r="AK7" s="177">
+      <c r="AE7" s="184"/>
+      <c r="AF7" s="184"/>
+      <c r="AG7" s="184"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
+      <c r="AJ7" s="184"/>
+      <c r="AK7" s="184">
         <f>AK8</f>
         <v>45719</v>
       </c>
-      <c r="AL7" s="177"/>
-      <c r="AM7" s="177"/>
-      <c r="AN7" s="177"/>
-      <c r="AO7" s="177"/>
-      <c r="AP7" s="177"/>
-      <c r="AQ7" s="177"/>
-      <c r="AR7" s="177">
+      <c r="AL7" s="184"/>
+      <c r="AM7" s="184"/>
+      <c r="AN7" s="184"/>
+      <c r="AO7" s="184"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="184"/>
+      <c r="AR7" s="184">
         <f>AR8</f>
         <v>45726</v>
       </c>
-      <c r="AS7" s="177"/>
-      <c r="AT7" s="177"/>
-      <c r="AU7" s="177"/>
-      <c r="AV7" s="177"/>
-      <c r="AW7" s="177"/>
-      <c r="AX7" s="177"/>
-      <c r="AY7" s="177">
+      <c r="AS7" s="184"/>
+      <c r="AT7" s="184"/>
+      <c r="AU7" s="184"/>
+      <c r="AV7" s="184"/>
+      <c r="AW7" s="184"/>
+      <c r="AX7" s="184"/>
+      <c r="AY7" s="184">
         <f>AY8</f>
         <v>45733</v>
       </c>
-      <c r="AZ7" s="177"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="177"/>
-      <c r="BC7" s="177"/>
-      <c r="BD7" s="177"/>
-      <c r="BE7" s="177"/>
-      <c r="BF7" s="177">
+      <c r="AZ7" s="184"/>
+      <c r="BA7" s="184"/>
+      <c r="BB7" s="184"/>
+      <c r="BC7" s="184"/>
+      <c r="BD7" s="184"/>
+      <c r="BE7" s="184"/>
+      <c r="BF7" s="184">
         <f>BF8</f>
         <v>45740</v>
       </c>
-      <c r="BG7" s="177"/>
-      <c r="BH7" s="177"/>
-      <c r="BI7" s="177"/>
-      <c r="BJ7" s="177"/>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="178"/>
+      <c r="BG7" s="184"/>
+      <c r="BH7" s="184"/>
+      <c r="BI7" s="184"/>
+      <c r="BJ7" s="184"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="185"/>
     </row>
     <row r="8" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="186"/>
+      <c r="B8" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="191" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="31">
@@ -31897,12 +31288,12 @@
       </c>
     </row>
     <row r="9" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="179"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
       <c r="I9" s="34" t="str">
         <f t="shared" ref="I9:BL9" si="3">LEFT(TEXT(I8,"ddd"),1)</f>
         <v>M</v>
@@ -34517,13 +33908,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="BF7:BL7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -34535,6 +33919,13 @@
     <mergeCell ref="AK7:AQ7"/>
     <mergeCell ref="AR7:AX7"/>
     <mergeCell ref="AY7:BE7"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="W7:AC7"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="dataBar" priority="8">
@@ -34635,6 +34026,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -34946,36 +34366,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34996,33 +34414,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>